--- a/Quizlet_doc_num.xlsx
+++ b/Quizlet_doc_num.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hn_01\OneDrive\Desktop\CS50 Course\assignguru\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hn_01\OneDrive\Desktop\django-assignguru\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3FEE9E1-9FB2-4EAF-9F17-4BD16AA0B1E3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE6AC449-1627-44F1-9F5D-290D14F63B01}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="43">
   <si>
     <t>doc_num</t>
   </si>
@@ -42,52 +42,127 @@
     <t>desc</t>
   </si>
   <si>
-    <t>unidad-4-preposiciones-de-lugar-diagram</t>
-  </si>
-  <si>
-    <t>prepositions-in-spanish-flash-cards</t>
-  </si>
-  <si>
-    <t>e3-vocabulario-c-5-diagram</t>
-  </si>
-  <si>
-    <t>professions-flash-cards</t>
-  </si>
-  <si>
-    <t>la-formacion-de-preguntas-y-las-palabras-interrogativas-flash-cards</t>
-  </si>
-  <si>
-    <t>spanish-oral-final-questions-and-answers-flash-cards</t>
-  </si>
-  <si>
-    <t>24-technology-at-home-vocabulary-flash-cards</t>
-  </si>
-  <si>
-    <t>spanish-61-escoger-choose-the-word-that-doesnt-belong-diagram</t>
-  </si>
-  <si>
-    <t>spanish-oral-exam-flash-cards</t>
-  </si>
-  <si>
-    <t>spanish-lesson-3-vocabulary-flash-cards</t>
-  </si>
-  <si>
-    <t>los-deportes-diagram</t>
-  </si>
-  <si>
-    <t>spanish-sports-and-games-flash-cards</t>
-  </si>
-  <si>
-    <t>ir-verb-endings-chart-diagram</t>
-  </si>
-  <si>
-    <t>all-spanish-verb-tenses-flash-cards</t>
-  </si>
-  <si>
-    <t>spanish-days-and-months-diagram</t>
-  </si>
-  <si>
-    <t>final-review-telling-time-chapter-1-flash-cards</t>
+    <t>deca-finance-terms-flash-cards</t>
+  </si>
+  <si>
+    <t>finance-chapter-123-flash-cards</t>
+  </si>
+  <si>
+    <t>business-studies-finance-flash-cards</t>
+  </si>
+  <si>
+    <t>finance-test-2-flash-cards</t>
+  </si>
+  <si>
+    <t>fbla-personal-finance-study-guide-flash-cards</t>
+  </si>
+  <si>
+    <t>deca-finance-flash-cards</t>
+  </si>
+  <si>
+    <t>deca-principles-of-finance-flash-cards</t>
+  </si>
+  <si>
+    <t>deca-finance-cluster-exam-flash-cards</t>
+  </si>
+  <si>
+    <t>deca-finance-cluster-exam-terms-flash-cards</t>
+  </si>
+  <si>
+    <t>deca-performance-indicators-flash-cards</t>
+  </si>
+  <si>
+    <t>deca-flash-cards</t>
+  </si>
+  <si>
+    <t>finance-vocab-deca-flash-cards</t>
+  </si>
+  <si>
+    <t>2012-deca-finance-cluster-exam-flash-cards</t>
+  </si>
+  <si>
+    <t>deca-finance-vocabulary-review-flash-cards</t>
+  </si>
+  <si>
+    <t>deca-finance-business-administration-core-exam-practice-flash-cards</t>
+  </si>
+  <si>
+    <t>personal-finance-flash-cards</t>
+  </si>
+  <si>
+    <t>personal-finance-review-flash-cards</t>
+  </si>
+  <si>
+    <t>personal-finance-final-exam-flash-cards</t>
+  </si>
+  <si>
+    <t>personal-finance-final-flash-cards</t>
+  </si>
+  <si>
+    <t>chapter-12-personal-finance-flash-cards</t>
+  </si>
+  <si>
+    <t>personal-finance-chapter-13-flash-cards</t>
+  </si>
+  <si>
+    <t>personal-finance-ch-4-flash-cards</t>
+  </si>
+  <si>
+    <t>personal-finance-exam-1-flash-cards</t>
+  </si>
+  <si>
+    <t>personal-finance-chapter-18-flash-cards</t>
+  </si>
+  <si>
+    <t>personal-family-finance-final-flash-cards</t>
+  </si>
+  <si>
+    <t>personal-finance-chapter-9-test-flash-cards</t>
+  </si>
+  <si>
+    <t>chapter-19-personal-finance-flash-cards</t>
+  </si>
+  <si>
+    <t>personal-finance-vb-flash-cards</t>
+  </si>
+  <si>
+    <t>personal-finance-ch-5-flash-cards</t>
+  </si>
+  <si>
+    <t>personal-finance-chapter-2-flash-cards</t>
+  </si>
+  <si>
+    <t>personal-finance-chapter-1-flash-cards</t>
+  </si>
+  <si>
+    <t>personal-finance-chapter-7-review-flash-cards</t>
+  </si>
+  <si>
+    <t>personal-finance-unit-4-vocab-flash-cards</t>
+  </si>
+  <si>
+    <t>personal-finance-chapter-17-flash-cards</t>
+  </si>
+  <si>
+    <t>personal-finance-exam-4-flash-cards</t>
+  </si>
+  <si>
+    <t>personal-finance-quiz-5-personal-finance-quiz-4-personal-finance-quiz-3-personal-finance-ch-1-quiz-flash-cards</t>
+  </si>
+  <si>
+    <t>chapter-2-personal-finance-flash-cards</t>
+  </si>
+  <si>
+    <t>personal-finance-chapter-3-sg-flash-cards</t>
+  </si>
+  <si>
+    <t>personal-finance-chapter-12-flash-cards</t>
+  </si>
+  <si>
+    <t>personal-finance-ch-3-flash-cards</t>
+  </si>
+  <si>
+    <t>personal-finance-exam-ch-5-7-flash-cards</t>
   </si>
 </sst>
 </file>
@@ -405,10 +480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="B87" sqref="B87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -427,47 +502,47 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>562820070</v>
+        <v>148588749</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>138278011</v>
+        <v>21543843</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>559677640</v>
+        <v>97665376</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>111209119</v>
+        <v>36978136</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>56042168</v>
+        <v>226422699</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>408521867</v>
+        <v>558485720</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
@@ -475,7 +550,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>539267572</v>
+        <v>558484736</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -483,74 +558,602 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>445455493</v>
+        <v>551620460</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>460417643</v>
+        <v>546303697</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>10550639</v>
+        <v>559335042</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>374671853</v>
+        <v>561273996</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>21527774</v>
+        <v>565422540</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>564553110</v>
+        <v>115504070</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>22093828</v>
+        <v>248566952</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>146692648</v>
+        <v>255853840</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>12578658</v>
+        <v>560174339</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>563858844</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>561181101</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>342940855</v>
+      </c>
+      <c r="B20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>551619903</v>
+      </c>
+      <c r="B21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>549942445</v>
+      </c>
+      <c r="B22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>183287826</v>
+      </c>
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>538346556</v>
+      </c>
+      <c r="B24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>548348543</v>
+      </c>
+      <c r="B25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>432601689</v>
+      </c>
+      <c r="B26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>170232795</v>
+      </c>
+      <c r="B27" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>561173793</v>
+      </c>
+      <c r="B28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>338974959</v>
+      </c>
+      <c r="B29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>235374293</v>
+      </c>
+      <c r="B30" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>474646089</v>
+      </c>
+      <c r="B31" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>549952530</v>
+      </c>
+      <c r="B32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>70310064</v>
+      </c>
+      <c r="B33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>73479971</v>
+      </c>
+      <c r="B34" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>350442000</v>
+      </c>
+      <c r="B35" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>39523060</v>
+      </c>
+      <c r="B36" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>18832603</v>
+      </c>
+      <c r="B37" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>360738360</v>
+      </c>
+      <c r="B38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>65776863</v>
+      </c>
+      <c r="B39" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>78582759</v>
+      </c>
+      <c r="B40" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>186041355</v>
+      </c>
+      <c r="B41" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>317254268</v>
+      </c>
+      <c r="B42" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>83513078</v>
+      </c>
+      <c r="B43" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>207151592</v>
+      </c>
+      <c r="B44" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>22757036</v>
+      </c>
+      <c r="B45" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>83446717</v>
+      </c>
+      <c r="B46" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>177446497</v>
+      </c>
+      <c r="B47" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>43182233</v>
+      </c>
+      <c r="B48" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>44945013</v>
+      </c>
+      <c r="B49" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>32873654</v>
+      </c>
+      <c r="B50" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>285926313</v>
+      </c>
+      <c r="B51" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>36714483</v>
+      </c>
+      <c r="B52" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>207175454</v>
+      </c>
+      <c r="B53" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>33100524</v>
+      </c>
+      <c r="B54" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>125935268</v>
+      </c>
+      <c r="B55" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>73346847</v>
+      </c>
+      <c r="B56" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>158657869</v>
+      </c>
+      <c r="B57" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>13800740</v>
+      </c>
+      <c r="B58" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>255025029</v>
+      </c>
+      <c r="B59" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>466763207</v>
+      </c>
+      <c r="B60" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>289286526</v>
+      </c>
+      <c r="B61" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>19742884</v>
+      </c>
+      <c r="B62" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>104057888</v>
+      </c>
+      <c r="B63" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>78284000</v>
+      </c>
+      <c r="B64" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>74433633</v>
+      </c>
+      <c r="B65" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>80961303</v>
+      </c>
+      <c r="B66" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>248676454</v>
+      </c>
+      <c r="B67" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>81863264</v>
+      </c>
+      <c r="B68" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>322945774</v>
+      </c>
+      <c r="B69" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>143048789</v>
+      </c>
+      <c r="B70" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>406438362</v>
+      </c>
+      <c r="B71" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>54984522</v>
+      </c>
+      <c r="B72" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>78537962</v>
+      </c>
+      <c r="B73" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>156584991</v>
+      </c>
+      <c r="B74" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>406438362</v>
+      </c>
+      <c r="B75" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>78537962</v>
+      </c>
+      <c r="B76" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>156584991</v>
+      </c>
+      <c r="B77" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>54984522</v>
+      </c>
+      <c r="B78" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>269456838</v>
+      </c>
+      <c r="B79" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>202006685</v>
+      </c>
+      <c r="B80" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>281647044</v>
+      </c>
+      <c r="B81" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>281647044</v>
+      </c>
+      <c r="B82" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>18056829</v>
+      </c>
+      <c r="B83" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Quizlet_doc_num.xlsx
+++ b/Quizlet_doc_num.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hn_01\OneDrive\Desktop\django-assignguru\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE6AC449-1627-44F1-9F5D-290D14F63B01}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70415C01-8380-493A-A96C-1751BD6CE93F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="30">
   <si>
     <t>doc_num</t>
   </si>
@@ -42,127 +42,88 @@
     <t>desc</t>
   </si>
   <si>
-    <t>deca-finance-terms-flash-cards</t>
-  </si>
-  <si>
-    <t>finance-chapter-123-flash-cards</t>
-  </si>
-  <si>
-    <t>business-studies-finance-flash-cards</t>
-  </si>
-  <si>
-    <t>finance-test-2-flash-cards</t>
-  </si>
-  <si>
-    <t>fbla-personal-finance-study-guide-flash-cards</t>
-  </si>
-  <si>
-    <t>deca-finance-flash-cards</t>
-  </si>
-  <si>
-    <t>deca-principles-of-finance-flash-cards</t>
-  </si>
-  <si>
-    <t>deca-finance-cluster-exam-flash-cards</t>
-  </si>
-  <si>
-    <t>deca-finance-cluster-exam-terms-flash-cards</t>
-  </si>
-  <si>
-    <t>deca-performance-indicators-flash-cards</t>
-  </si>
-  <si>
-    <t>deca-flash-cards</t>
-  </si>
-  <si>
-    <t>finance-vocab-deca-flash-cards</t>
-  </si>
-  <si>
-    <t>2012-deca-finance-cluster-exam-flash-cards</t>
-  </si>
-  <si>
-    <t>deca-finance-vocabulary-review-flash-cards</t>
-  </si>
-  <si>
-    <t>deca-finance-business-administration-core-exam-practice-flash-cards</t>
-  </si>
-  <si>
-    <t>personal-finance-flash-cards</t>
-  </si>
-  <si>
-    <t>personal-finance-review-flash-cards</t>
-  </si>
-  <si>
-    <t>personal-finance-final-exam-flash-cards</t>
-  </si>
-  <si>
-    <t>personal-finance-final-flash-cards</t>
-  </si>
-  <si>
-    <t>chapter-12-personal-finance-flash-cards</t>
-  </si>
-  <si>
-    <t>personal-finance-chapter-13-flash-cards</t>
-  </si>
-  <si>
-    <t>personal-finance-ch-4-flash-cards</t>
-  </si>
-  <si>
-    <t>personal-finance-exam-1-flash-cards</t>
-  </si>
-  <si>
-    <t>personal-finance-chapter-18-flash-cards</t>
-  </si>
-  <si>
-    <t>personal-family-finance-final-flash-cards</t>
-  </si>
-  <si>
-    <t>personal-finance-chapter-9-test-flash-cards</t>
-  </si>
-  <si>
-    <t>chapter-19-personal-finance-flash-cards</t>
-  </si>
-  <si>
-    <t>personal-finance-vb-flash-cards</t>
-  </si>
-  <si>
-    <t>personal-finance-ch-5-flash-cards</t>
-  </si>
-  <si>
-    <t>personal-finance-chapter-2-flash-cards</t>
-  </si>
-  <si>
-    <t>personal-finance-chapter-1-flash-cards</t>
-  </si>
-  <si>
-    <t>personal-finance-chapter-7-review-flash-cards</t>
-  </si>
-  <si>
-    <t>personal-finance-unit-4-vocab-flash-cards</t>
-  </si>
-  <si>
-    <t>personal-finance-chapter-17-flash-cards</t>
-  </si>
-  <si>
-    <t>personal-finance-exam-4-flash-cards</t>
-  </si>
-  <si>
-    <t>personal-finance-quiz-5-personal-finance-quiz-4-personal-finance-quiz-3-personal-finance-ch-1-quiz-flash-cards</t>
-  </si>
-  <si>
-    <t>chapter-2-personal-finance-flash-cards</t>
-  </si>
-  <si>
-    <t>personal-finance-chapter-3-sg-flash-cards</t>
-  </si>
-  <si>
-    <t>personal-finance-chapter-12-flash-cards</t>
-  </si>
-  <si>
-    <t>personal-finance-ch-3-flash-cards</t>
-  </si>
-  <si>
-    <t>personal-finance-exam-ch-5-7-flash-cards</t>
+    <t>economics-final-flash-cards</t>
+  </si>
+  <si>
+    <t>economics-unit-1-economics-fundamentals-flash-cards</t>
+  </si>
+  <si>
+    <t>economics-flash-cards</t>
+  </si>
+  <si>
+    <t>economic-systems-flash-cards</t>
+  </si>
+  <si>
+    <t>economic-flash-cards</t>
+  </si>
+  <si>
+    <t>economics-unit-1-introduction-to-economics-flash-cards</t>
+  </si>
+  <si>
+    <t>economics-vocab-flash-cards</t>
+  </si>
+  <si>
+    <t>economics-principle-of-economics-flash-cards</t>
+  </si>
+  <si>
+    <t>economics-chapter-18-flash-cards</t>
+  </si>
+  <si>
+    <t>economics-vocabulary-flash-cards</t>
+  </si>
+  <si>
+    <t>economics-chapter-9-flash-cards</t>
+  </si>
+  <si>
+    <t>economics-exam-flash-cards</t>
+  </si>
+  <si>
+    <t>plato-economics-flash-cards</t>
+  </si>
+  <si>
+    <t>macroeconomics-flash-cards</t>
+  </si>
+  <si>
+    <t>macro-economics-flash-cards</t>
+  </si>
+  <si>
+    <t>economic-chapter-3-flash-cards</t>
+  </si>
+  <si>
+    <t>economics-final-review-flash-cards</t>
+  </si>
+  <si>
+    <t>unit-2-economics-flash-cards</t>
+  </si>
+  <si>
+    <t>economic-growth-flash-cards</t>
+  </si>
+  <si>
+    <t>international-economics-flash-cards</t>
+  </si>
+  <si>
+    <t>unit-3-economics-flash-cards</t>
+  </si>
+  <si>
+    <t>microeconomics-flash-cards</t>
+  </si>
+  <si>
+    <t>economic-roles-test-flash-cards</t>
+  </si>
+  <si>
+    <t>economics-test-3-flash-cards</t>
+  </si>
+  <si>
+    <t>global-economics-flash-cards</t>
+  </si>
+  <si>
+    <t>economics-review-flash-cards</t>
+  </si>
+  <si>
+    <t>economics-quiz-1-flash-cards</t>
+  </si>
+  <si>
+    <t>economics-2-flash-cards</t>
   </si>
 </sst>
 </file>
@@ -480,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B83"/>
+  <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B87" sqref="B87"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -502,63 +463,63 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>148588749</v>
+        <v>140228978</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>21543843</v>
+        <v>13084704</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>97665376</v>
+        <v>267541947</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>36978136</v>
+        <v>1759709</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>226422699</v>
+        <v>71044707</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>558485720</v>
+        <v>94906392</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>558484736</v>
+        <v>17442344</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>551620460</v>
+        <v>33341418</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
@@ -566,594 +527,298 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>546303697</v>
+        <v>12856347</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>559335042</v>
+        <v>96554476</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>561273996</v>
+        <v>45844469</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>565422540</v>
+        <v>57126043</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>115504070</v>
+        <v>141403299</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>248566952</v>
+        <v>13414159</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>255853840</v>
+        <v>23494797</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>560174339</v>
+        <v>111508964</v>
       </c>
       <c r="B17" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>563858844</v>
+        <v>128537213</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>561181101</v>
+        <v>62825715</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>342940855</v>
+        <v>19015910</v>
       </c>
       <c r="B20" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>551619903</v>
+        <v>62825715</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>549942445</v>
+        <v>19015910</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>183287826</v>
+        <v>318680818</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>538346556</v>
+        <v>68545348</v>
       </c>
       <c r="B24" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>548348543</v>
+        <v>148123802</v>
       </c>
       <c r="B25" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>432601689</v>
+        <v>14683212</v>
       </c>
       <c r="B26" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>170232795</v>
+        <v>361930787</v>
       </c>
       <c r="B27" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>561173793</v>
+        <v>7777133</v>
       </c>
       <c r="B28" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>338974959</v>
+        <v>24827480</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>235374293</v>
+        <v>5135541</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>474646089</v>
+        <v>18474836</v>
       </c>
       <c r="B31" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>549952530</v>
+        <v>175700031</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>70310064</v>
+        <v>94997998</v>
       </c>
       <c r="B33" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>73479971</v>
+        <v>128167837</v>
       </c>
       <c r="B34" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>350442000</v>
+        <v>213723253</v>
       </c>
       <c r="B35" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>39523060</v>
+        <v>162028541</v>
       </c>
       <c r="B36" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>18832603</v>
+        <v>334319492</v>
       </c>
       <c r="B37" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>360738360</v>
+        <v>253110061</v>
       </c>
       <c r="B38" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>65776863</v>
+        <v>45296037</v>
       </c>
       <c r="B39" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>78582759</v>
+        <v>418879575</v>
       </c>
       <c r="B40" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>186041355</v>
+        <v>398107130</v>
       </c>
       <c r="B41" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>317254268</v>
+        <v>47203801</v>
       </c>
       <c r="B42" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>83513078</v>
+        <v>5918229</v>
       </c>
       <c r="B43" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>207151592</v>
+        <v>289104749</v>
       </c>
       <c r="B44" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>22757036</v>
+        <v>28390807</v>
       </c>
       <c r="B45" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>83446717</v>
+        <v>53789942</v>
       </c>
       <c r="B46" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>177446497</v>
-      </c>
-      <c r="B47" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>43182233</v>
-      </c>
-      <c r="B48" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>44945013</v>
-      </c>
-      <c r="B49" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>32873654</v>
-      </c>
-      <c r="B50" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>285926313</v>
-      </c>
-      <c r="B51" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>36714483</v>
-      </c>
-      <c r="B52" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>207175454</v>
-      </c>
-      <c r="B53" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>33100524</v>
-      </c>
-      <c r="B54" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>125935268</v>
-      </c>
-      <c r="B55" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>73346847</v>
-      </c>
-      <c r="B56" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>158657869</v>
-      </c>
-      <c r="B57" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>13800740</v>
-      </c>
-      <c r="B58" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>255025029</v>
-      </c>
-      <c r="B59" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>466763207</v>
-      </c>
-      <c r="B60" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>289286526</v>
-      </c>
-      <c r="B61" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>19742884</v>
-      </c>
-      <c r="B62" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>104057888</v>
-      </c>
-      <c r="B63" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>78284000</v>
-      </c>
-      <c r="B64" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>74433633</v>
-      </c>
-      <c r="B65" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>80961303</v>
-      </c>
-      <c r="B66" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <v>248676454</v>
-      </c>
-      <c r="B67" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <v>81863264</v>
-      </c>
-      <c r="B68" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>322945774</v>
-      </c>
-      <c r="B69" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>143048789</v>
-      </c>
-      <c r="B70" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>406438362</v>
-      </c>
-      <c r="B71" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>54984522</v>
-      </c>
-      <c r="B72" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>78537962</v>
-      </c>
-      <c r="B73" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <v>156584991</v>
-      </c>
-      <c r="B74" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <v>406438362</v>
-      </c>
-      <c r="B75" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>78537962</v>
-      </c>
-      <c r="B76" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <v>156584991</v>
-      </c>
-      <c r="B77" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <v>54984522</v>
-      </c>
-      <c r="B78" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <v>269456838</v>
-      </c>
-      <c r="B79" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <v>202006685</v>
-      </c>
-      <c r="B80" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <v>281647044</v>
-      </c>
-      <c r="B81" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82">
-        <v>281647044</v>
-      </c>
-      <c r="B82" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83">
-        <v>18056829</v>
-      </c>
-      <c r="B83" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
